--- a/final_data_pipeline/output/311314longform.xlsx
+++ b/final_data_pipeline/output/311314longform.xlsx
@@ -810,7 +810,7 @@
         <v>77</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -893,7 +893,7 @@
         <v>77</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -982,7 +982,7 @@
         <v>77</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1071,7 +1071,7 @@
         <v>77</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1154,7 +1154,7 @@
         <v>77</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1237,7 +1237,7 @@
         <v>77</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1320,7 +1320,7 @@
         <v>77</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1409,7 +1409,7 @@
         <v>77</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1492,7 +1492,7 @@
         <v>77</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1581,7 +1581,7 @@
         <v>77</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1664,7 +1664,7 @@
         <v>77</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1747,7 +1747,7 @@
         <v>77</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1830,7 +1830,7 @@
         <v>77</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -1913,7 +1913,7 @@
         <v>77</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2002,7 +2002,7 @@
         <v>77</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -2091,7 +2091,7 @@
         <v>77</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB17">
         <v>8000</v>
@@ -2174,7 +2174,7 @@
         <v>77</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2257,7 +2257,7 @@
         <v>77</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -2340,7 +2340,7 @@
         <v>77</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2429,7 +2429,7 @@
         <v>77</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2518,7 +2518,7 @@
         <v>77</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2601,7 +2601,7 @@
         <v>77</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2684,7 +2684,7 @@
         <v>77</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2767,7 +2767,7 @@
         <v>77</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="AB25">
         <v>8000</v>
@@ -2850,7 +2850,7 @@
         <v>77</v>
       </c>
       <c r="AA26">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB26">
         <v>8000</v>
@@ -2933,7 +2933,7 @@
         <v>77</v>
       </c>
       <c r="AA27">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB27">
         <v>8000</v>
@@ -3016,7 +3016,7 @@
         <v>77</v>
       </c>
       <c r="AA28">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB28">
         <v>8000</v>
@@ -3099,7 +3099,7 @@
         <v>77</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB29">
         <v>8000</v>
@@ -3182,7 +3182,7 @@
         <v>77</v>
       </c>
       <c r="AA30">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB30">
         <v>8000</v>
@@ -3265,7 +3265,7 @@
         <v>77</v>
       </c>
       <c r="AA31">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB31">
         <v>8000</v>
@@ -3348,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB32">
         <v>8000</v>
@@ -3431,7 +3431,7 @@
         <v>77</v>
       </c>
       <c r="AA33">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB33">
         <v>8000</v>
@@ -3514,7 +3514,7 @@
         <v>77</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -3597,7 +3597,7 @@
         <v>77</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -3680,7 +3680,7 @@
         <v>77</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB36">
         <v>8000</v>
@@ -3763,7 +3763,7 @@
         <v>77</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -3846,7 +3846,7 @@
         <v>77</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB38">
         <v>8000</v>
@@ -3929,7 +3929,7 @@
         <v>77</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB39">
         <v>8000</v>
@@ -4012,7 +4012,7 @@
         <v>77</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB40">
         <v>8000</v>
@@ -4095,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="AA41">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="AB41">
         <v>8000</v>
@@ -4184,7 +4184,7 @@
         <v>77</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB42">
         <v>8000</v>
@@ -4267,7 +4267,7 @@
         <v>77</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB43">
         <v>8000</v>
@@ -4350,7 +4350,7 @@
         <v>77</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4439,7 +4439,7 @@
         <v>77</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -4522,7 +4522,7 @@
         <v>77</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -4611,7 +4611,7 @@
         <v>77</v>
       </c>
       <c r="AA47">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB47">
         <v>8000</v>
@@ -4700,7 +4700,7 @@
         <v>77</v>
       </c>
       <c r="AA48">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB48">
         <v>8000</v>
@@ -4789,7 +4789,7 @@
         <v>77</v>
       </c>
       <c r="AA49">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB49">
         <v>8000</v>
@@ -4878,7 +4878,7 @@
         <v>77</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -4961,7 +4961,7 @@
         <v>77</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -5050,7 +5050,7 @@
         <v>77</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5139,7 +5139,7 @@
         <v>77</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5222,7 +5222,7 @@
         <v>77</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5311,7 +5311,7 @@
         <v>77</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5400,7 +5400,7 @@
         <v>77</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -5489,7 +5489,7 @@
         <v>77</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -5578,7 +5578,7 @@
         <v>77</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -5667,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -5750,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -5839,7 +5839,7 @@
         <v>77</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -5922,7 +5922,7 @@
         <v>77</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -6005,7 +6005,7 @@
         <v>77</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -6094,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6183,7 +6183,7 @@
         <v>77</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AB65">
         <v>8000</v>
